--- a/basic_strategy.xlsx
+++ b/basic_strategy.xlsx
@@ -495,121 +495,16 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>H</t>
@@ -651,6 +546,11 @@
         </is>
       </c>
       <c r="K5" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -660,11 +560,6 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>H</t>
@@ -706,6 +601,11 @@
         </is>
       </c>
       <c r="K6" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -715,11 +615,6 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>H</t>
@@ -761,6 +656,11 @@
         </is>
       </c>
       <c r="K7" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -770,11 +670,6 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>H</t>
@@ -816,6 +711,11 @@
         </is>
       </c>
       <c r="K8" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -825,11 +725,6 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>H</t>
@@ -871,6 +766,11 @@
         </is>
       </c>
       <c r="K9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -880,11 +780,6 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>H</t>
@@ -926,6 +821,11 @@
         </is>
       </c>
       <c r="K10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -935,11 +835,6 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>H</t>
@@ -981,6 +876,11 @@
         </is>
       </c>
       <c r="K11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -990,11 +890,6 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>H</t>
@@ -1036,6 +931,11 @@
         </is>
       </c>
       <c r="K12" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -1045,11 +945,6 @@
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>H</t>
@@ -1091,6 +986,11 @@
         </is>
       </c>
       <c r="K13" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -1100,11 +1000,6 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>H</t>
@@ -1146,6 +1041,11 @@
         </is>
       </c>
       <c r="K14" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -1155,11 +1055,6 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>H</t>
@@ -1201,6 +1096,11 @@
         </is>
       </c>
       <c r="K15" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -1210,11 +1110,6 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>H</t>
@@ -1256,6 +1151,11 @@
         </is>
       </c>
       <c r="K16" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -1265,11 +1165,6 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>H</t>
@@ -1277,22 +1172,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>H</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>H</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>H</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1311,6 +1206,11 @@
         </is>
       </c>
       <c r="K17" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>H</t>
         </is>
@@ -1320,19 +1220,14 @@
       <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1352,22 +1247,27 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>H</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -1375,11 +1275,6 @@
       <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>S</t>
@@ -1423,6 +1318,11 @@
       <c r="K19" t="inlineStr">
         <is>
           <t>S</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -1430,11 +1330,6 @@
       <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>S</t>
@@ -1476,6 +1371,11 @@
         </is>
       </c>
       <c r="K20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1485,11 +1385,6 @@
       <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>S</t>
@@ -1531,6 +1426,11 @@
         </is>
       </c>
       <c r="K21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>S</t>
         </is>
@@ -1539,6 +1439,56 @@
     <row r="22">
       <c r="A22" t="n">
         <v>21</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
       </c>
     </row>
   </sheetData>
